--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-01_end.xlsx
@@ -668,11 +668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It also destroys any chance we have at living a normal life. Or rather, "civilized society" strips everything away from us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Chernobog has been the shining beacon of this "civility."
+    <t xml:space="preserve">[name="Amiya"]  It also destroys any chance we have at living a normal life. Or rather, 'civilized society' strips everything away from us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Chernobog has been the shining beacon of this 'civility.'
 </t>
   </si>
   <si>
